--- a/model/results/grey_ggpos_h2pos/v_abated.xlsx
+++ b/model/results/grey_ggpos_h2pos/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>254059.7761194031</v>
+        <v>1484704.76</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>401950.7256470583</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>254313.8358955224</v>
+        <v>1486189.46476</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>402352.6763727053</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>254568.1497314179</v>
+        <v>1487675.65422476</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>402755.029049078</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>254822.7178811493</v>
+        <v>1489163.329878984</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1016000.529062131</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>883385.4219879839</v>
+        <v>4552832.559476532</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>403157.784078127</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>255077.5405990304</v>
+        <v>1490652.493208863</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1017016.529591193</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>884268.807409972</v>
+        <v>4557385.39203601</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>403560.941862205</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -999,19 +999,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>255332.6181396294</v>
+        <v>1492143.145702072</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1018033.546120785</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2525875.685186475</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>885153.0762173819</v>
+        <v>4561942.777428045</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>403964.5028040672</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>255587.950757769</v>
+        <v>1493635.288847774</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1019051.579666905</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2528401.560871661</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>886038.229293599</v>
+        <v>4566504.720205472</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>404368.4673068712</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>937399.6287568391</v>
       </c>
       <c r="M9" t="n">
-        <v>1406099.443135258</v>
+        <v>1001730.975828387</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>255843.5387085268</v>
+        <v>1495128.924136622</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1020070.631246572</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2530929.962432533</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>886924.2675228927</v>
+        <v>4571071.224925676</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>404772.835774178</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>938337.0283855959</v>
       </c>
       <c r="M10" t="n">
-        <v>1407505.542578394</v>
+        <v>1002732.706804215</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1221,31 +1221,31 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>256099.3822472352</v>
+        <v>1496624.053060757</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1021090.701877818</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2533460.892394965</v>
       </c>
       <c r="G11" t="n">
-        <v>10295195.16633885</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>887811.1917904154</v>
+        <v>4575642.296150602</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>405177.6086099522</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>939275.3654139811</v>
       </c>
       <c r="M11" t="n">
-        <v>1408913.048120972</v>
+        <v>1003735.43951102</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1295,31 +1295,31 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>256355.4816294825</v>
+        <v>1498120.677113818</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1022111.792579696</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2535994.35328736</v>
       </c>
       <c r="G12" t="n">
-        <v>10305490.36150519</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>888699.0029822057</v>
+        <v>4580217.938446753</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>405582.7862185622</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>940214.6407793954</v>
       </c>
       <c r="M12" t="n">
-        <v>1410321.961169093</v>
+        <v>1004739.174950531</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>256611.8371111119</v>
+        <v>1499618.797790932</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1023133.904372276</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2538530.347640647</v>
       </c>
       <c r="G13" t="n">
-        <v>10315795.8518667</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>889587.7019851881</v>
+        <v>4584798.156385198</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>405988.3690047806</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>941154.8554201744</v>
       </c>
       <c r="M13" t="n">
-        <v>1411732.283130261</v>
+        <v>1005743.914125481</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1443,31 +1443,31 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>256868.4489482231</v>
+        <v>1501118.416588723</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1024157.038276648</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2541068.877988287</v>
       </c>
       <c r="G14" t="n">
-        <v>10326111.64771856</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>890477.2896871744</v>
+        <v>4589382.954541584</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>406394.3573737853</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>942096.0102755944</v>
       </c>
       <c r="M14" t="n">
-        <v>1413144.015413391</v>
+        <v>1006749.658039606</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1517,31 +1517,31 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>257125.3173971721</v>
+        <v>1502619.535005311</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1025181.195314925</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2543609.946866275</v>
       </c>
       <c r="G15" t="n">
-        <v>10336437.75936628</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>891367.7669768601</v>
+        <v>4593972.337496125</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>406800.751731159</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>943038.1062858701</v>
       </c>
       <c r="M15" t="n">
-        <v>1414557.159428805</v>
+        <v>1007756.407697646</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1591,31 +1591,31 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>257382.4427145693</v>
+        <v>1504122.154540317</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1026206.376510239</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2546153.556813141</v>
       </c>
       <c r="G16" t="n">
-        <v>10346774.19712564</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>892259.1347438369</v>
+        <v>4598566.309833621</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>407207.5524828903</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>943981.1443921559</v>
       </c>
       <c r="M16" t="n">
-        <v>1415971.716588233</v>
+        <v>1008764.164105343</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>257639.8251572828</v>
+        <v>1146465.929663452</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1677,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3823049.56555493</v>
       </c>
       <c r="G17" t="n">
-        <v>10357120.97132277</v>
+        <v>1755259.448824174</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>893151.3938785805</v>
+        <v>3974415.222833301</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>407614.760035373</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>944925.1255365477</v>
       </c>
       <c r="M17" t="n">
-        <v>1417387.688304821</v>
+        <v>1009772.928269449</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>257897.4649824401</v>
+        <v>1147612.395593115</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1751,19 +1751,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3826872.615120485</v>
       </c>
       <c r="G18" t="n">
-        <v>10367478.09229409</v>
+        <v>1757014.708272998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>894044.545272459</v>
+        <v>3978389.638056135</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>408022.3747954084</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>945870.0506620842</v>
       </c>
       <c r="M18" t="n">
-        <v>1418805.075993126</v>
+        <v>1010782.701197718</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>258155.3624474226</v>
+        <v>1148760.007988708</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1825,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3830699.487735605</v>
       </c>
       <c r="G19" t="n">
-        <v>10377845.57038638</v>
+        <v>1758771.722981271</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>894938.5898177313</v>
+        <v>3982368.02769419</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>408430.3971702037</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>946815.9207127463</v>
       </c>
       <c r="M19" t="n">
-        <v>1420223.881069119</v>
+        <v>1011793.483898915</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>258413.5178098695</v>
+        <v>1149908.767996694</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1899,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3834530.187223341</v>
       </c>
       <c r="G20" t="n">
-        <v>10388223.41595677</v>
+        <v>1760530.494704263</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>895833.5284075494</v>
+        <v>3986350.39572188</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>408838.8275673739</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>947762.7366334592</v>
       </c>
       <c r="M20" t="n">
-        <v>1421644.104950188</v>
+        <v>1012805.277382814</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>258671.9313276804</v>
+        <v>1151058.676764693</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3838364.717410563</v>
       </c>
       <c r="G21" t="n">
-        <v>10398611.63937273</v>
+        <v>1762291.025198956</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>896729.3619359562</v>
+        <v>3990336.746117605</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>409247.6663949413</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>948710.4993700923</v>
       </c>
       <c r="M21" t="n">
-        <v>1423065.749055138</v>
+        <v>1013818.082660197</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
